--- a/manual.xlsx
+++ b/manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\fix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FB0CD6F-A114-4E6B-82A5-42F92FB8405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2A01EC-18FA-4479-AD37-00C57B6D8F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DA2623E4-759C-4D7E-A17F-69973E8F8AE9}"/>
   </bookViews>
@@ -410,54 +410,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F73AB-5EF4-495C-9DA8-18DDD473CD9B}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="151.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="151.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
